--- a/download_file/마음손거래내역_하늘빛요양원운영전표정보테스트.xlsx
+++ b/download_file/마음손거래내역_하늘빛요양원운영전표정보테스트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ysk\Python\python_auto_work\download_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33E20DC-A959-45BE-AAEF-C804CF092EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2779E7BA-060C-42AC-AD7C-F7704EDEC3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7095" yWindow="3030" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="43">
   <si>
     <t>구분</t>
   </si>
@@ -122,24 +122,6 @@
   </si>
   <si>
     <t>2023-04-28-189</t>
-  </si>
-  <si>
-    <t>급여(직접비)</t>
-  </si>
-  <si>
-    <t>직원급여</t>
-  </si>
-  <si>
-    <t>2023-04-28-190</t>
-  </si>
-  <si>
-    <t>2023-04-28-191</t>
-  </si>
-  <si>
-    <t>2023-04-28-192</t>
-  </si>
-  <si>
-    <t>2023-04-28-193</t>
   </si>
   <si>
     <t>(주)현대메디케어</t>
@@ -1201,10 +1183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="A8" sqref="A8:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1491,25 +1473,25 @@
         <v>45108</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
       <c r="H8" s="5">
-        <v>2142000</v>
+        <v>60000</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>16</v>
@@ -1529,16 +1511,16 @@
         <v>45108</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
       <c r="H9" s="5">
-        <v>2016020</v>
+        <v>1364000</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>14</v>
@@ -1547,7 +1529,7 @@
         <v>17</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>16</v>
@@ -1567,16 +1549,16 @@
         <v>45108</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
       <c r="H10" s="5">
-        <v>1799820</v>
+        <v>709310</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>14</v>
@@ -1585,7 +1567,7 @@
         <v>17</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>16</v>
@@ -1605,33 +1587,33 @@
         <v>45108</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
       </c>
       <c r="H11" s="5">
-        <v>1886090</v>
+        <v>930000</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>13</v>
@@ -1643,177 +1625,25 @@
         <v>45108</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="3">
+        <v>31</v>
+      </c>
+      <c r="G12" s="5">
+        <v>930000</v>
+      </c>
+      <c r="H12" s="3">
         <v>0</v>
-      </c>
-      <c r="H12" s="5">
-        <v>60000</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="4">
-        <v>45108</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5">
-        <v>1364000</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="4">
-        <v>45108</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="5">
-        <v>709310</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="4">
-        <v>45108</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="5">
-        <v>930000</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="4">
-        <v>45108</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="5">
-        <v>930000</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L16" s="3" t="s">
         <v>16</v>
       </c>
     </row>
